--- a/data/mice_workbook.xlsx
+++ b/data/mice_workbook.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -681,6 +681,60 @@
         </is>
       </c>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2551</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17:31:24</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2551</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17:31:24</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
